--- a/biology/Botanique/François_Chicoyneau_(1702-1740)/François_Chicoyneau_(1702-1740).xlsx
+++ b/biology/Botanique/François_Chicoyneau_(1702-1740)/François_Chicoyneau_(1702-1740).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Chicoyneau_(1702-1740)</t>
+          <t>François_Chicoyneau_(1702-1740)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Chicoyneau, né à Montpellier le 1er juin 1702 et mort dans la même ville le 21 juin 1740, est un médecin et botaniste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Chicoyneau_(1702-1740)</t>
+          <t>François_Chicoyneau_(1702-1740)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Chicoyneau naît à Montpellier en 1702. Il est fils du médecin François Chicoyneau et de sa première épouse Catherine Fournier[n 1],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Chicoyneau naît à Montpellier en 1702. Il est fils du médecin François Chicoyneau et de sa première épouse Catherine Fournier[n 1],.
 Son père est son premier maître. Puis son grand-père maternel Pierre Chirac lui enseigne à Paris les principes de la médecine. Du Verney et Winslow lui apprennent l'anatomie et Vaillant la botanique. Doué, il progresse vite.[réf. nécessaire]
 Il remplit avec succès sa fonction d'intendant du jardin des plantes de Montpellier[réf. nécessaire], le plus ancien du royaume[n 2], qu'il  renouvelle entièrement et en peu de temps. Passionné de botanique, il possède en ce domaine des connaissances étendues.[réf. nécessaire]
-Il occupe, comme cinquième membre de sa famille, la charge de professeur et chancelier de la Faculté de médecine de Montpellier. Il enseigne au cours public d'anatomie,[réf. nécessaire] et a pour élève Antoine de Jussieu[2].
-Il est premier médecin du roi[2].
+Il occupe, comme cinquième membre de sa famille, la charge de professeur et chancelier de la Faculté de médecine de Montpellier. Il enseigne au cours public d'anatomie,[réf. nécessaire] et a pour élève Antoine de Jussieu.
+Il est premier médecin du roi.
 Membre de l'Académie de Montpellier, il produit deux mémoires : l'un sur l'Irritabilité des étamines de certaines plantes, l'autre sur les Mouvements particuliers que présentent les fleurs des chicoracées. Il s'y montre observateur exact et écrivain élégant.[réf. nécessaire]
 À la demande de son père, il occupe également la charge de conseiller à la cour des aides. De ce fait, il pratique le droit avec aisance, bien qu'avec moins de goût que pour la médecine.[réf. nécessaire]
-En 1736, il épouse Marie Rouzier de Saint-Esteve, fille d'un conseiller à la cour des comptes, aides et finances de Montpellier[3].
-Il meurt à Montpellier en 1740, âgé de 38 ans[4]. Pour lui succéder, Louis XV choisit son fils, âgé de deux ans.[réf. nécessaire]
+En 1736, il épouse Marie Rouzier de Saint-Esteve, fille d'un conseiller à la cour des comptes, aides et finances de Montpellier.
+Il meurt à Montpellier en 1740, âgé de 38 ans. Pour lui succéder, Louis XV choisit son fils, âgé de deux ans.[réf. nécessaire]
 </t>
         </is>
       </c>
